--- a/clean_csv/matrix_xls.xlsx
+++ b/clean_csv/matrix_xls.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Mi unidad\Universidad\ITESM 8\Compiladores\proyectos\Proyecto_1_Analizador-Lexico\clean_csv\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D57933FD-8F3B-4585-B838-C8D6F4DBFF2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE0EA46D-2A00-4E4B-ACED-A5875819CD35}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4080" yWindow="4080" windowWidth="17280" windowHeight="7188" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -81,7 +81,7 @@
     <t>$</t>
   </si>
   <si>
-    <t>.</t>
+    <t>%.</t>
   </si>
 </sst>
 </file>
@@ -478,8 +478,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="H21" sqref="H21"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
